--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ntf3-Ngfr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ntf3-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Ngfr</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +525,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.73194913287815</v>
+        <v>3.9319015</v>
       </c>
       <c r="H2">
-        <v>3.73194913287815</v>
+        <v>7.863803000000001</v>
       </c>
       <c r="I2">
-        <v>0.4435916482994773</v>
+        <v>0.3815166189484025</v>
       </c>
       <c r="J2">
-        <v>0.4435916482994773</v>
+        <v>0.3260182739810296</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>10.2615767625991</v>
+        <v>0.2576883333333334</v>
       </c>
       <c r="N2">
-        <v>10.2615767625991</v>
+        <v>0.7730650000000001</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.02020718570100839</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.02972883163094001</v>
       </c>
       <c r="Q2">
-        <v>38.29568250114428</v>
+        <v>1.013205144365833</v>
       </c>
       <c r="R2">
-        <v>38.29568250114428</v>
+        <v>6.079230866195002</v>
       </c>
       <c r="S2">
-        <v>0.4435916482994773</v>
+        <v>0.007709377167111224</v>
       </c>
       <c r="T2">
-        <v>0.4435916482994773</v>
+        <v>0.009692142375791699</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.61396678425329</v>
+        <v>3.9319015</v>
       </c>
       <c r="H3">
-        <v>2.61396678425329</v>
+        <v>7.863803000000001</v>
       </c>
       <c r="I3">
-        <v>0.3107046192595735</v>
+        <v>0.3815166189484025</v>
       </c>
       <c r="J3">
-        <v>0.3107046192595735</v>
+        <v>0.3260182739810296</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>10.2615767625991</v>
+        <v>0.241569</v>
       </c>
       <c r="N3">
-        <v>10.2615767625991</v>
+        <v>0.7247070000000001</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.0189431534577567</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.02786918614186859</v>
       </c>
       <c r="Q3">
-        <v>26.82342081149945</v>
+        <v>0.9498255134535002</v>
       </c>
       <c r="R3">
-        <v>26.82342081149945</v>
+        <v>5.698953080721001</v>
       </c>
       <c r="S3">
-        <v>0.3107046192595735</v>
+        <v>0.007227127859424077</v>
       </c>
       <c r="T3">
-        <v>0.3107046192595735</v>
+        <v>0.009085863963228028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3.9319015</v>
+      </c>
+      <c r="H4">
+        <v>7.863803000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.3815166189484025</v>
+      </c>
+      <c r="J4">
+        <v>0.3260182739810296</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>12.2530545</v>
+      </c>
+      <c r="N4">
+        <v>24.506109</v>
+      </c>
+      <c r="O4">
+        <v>0.960849660841235</v>
+      </c>
+      <c r="P4">
+        <v>0.9424019822271914</v>
+      </c>
+      <c r="Q4">
+        <v>48.17780336813176</v>
+      </c>
+      <c r="R4">
+        <v>192.711213472527</v>
+      </c>
+      <c r="S4">
+        <v>0.3665801139218672</v>
+      </c>
+      <c r="T4">
+        <v>0.3072402676420098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.284443</v>
+      </c>
+      <c r="H5">
+        <v>0.853329</v>
+      </c>
+      <c r="I5">
+        <v>0.0275998093145366</v>
+      </c>
+      <c r="J5">
+        <v>0.03537739281082676</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.2576883333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.7730650000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.02020718570100839</v>
+      </c>
+      <c r="P5">
+        <v>0.02972883163094001</v>
+      </c>
+      <c r="Q5">
+        <v>0.07329764259833334</v>
+      </c>
+      <c r="R5">
+        <v>0.6596787833850001</v>
+      </c>
+      <c r="S5">
+        <v>0.0005577144721312621</v>
+      </c>
+      <c r="T5">
+        <v>0.001051728554414696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.284443</v>
+      </c>
+      <c r="H6">
+        <v>0.853329</v>
+      </c>
+      <c r="I6">
+        <v>0.0275998093145366</v>
+      </c>
+      <c r="J6">
+        <v>0.03537739281082676</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.241569</v>
+      </c>
+      <c r="N6">
+        <v>0.7247070000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.0189431534577567</v>
+      </c>
+      <c r="P6">
+        <v>0.02786918614186859</v>
+      </c>
+      <c r="Q6">
+        <v>0.06871261106700001</v>
+      </c>
+      <c r="R6">
+        <v>0.6184134996030001</v>
+      </c>
+      <c r="S6">
+        <v>0.0005228274232500896</v>
+      </c>
+      <c r="T6">
+        <v>0.0009859391454589347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.284443</v>
+      </c>
+      <c r="H7">
+        <v>0.853329</v>
+      </c>
+      <c r="I7">
+        <v>0.0275998093145366</v>
+      </c>
+      <c r="J7">
+        <v>0.03537739281082676</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>12.2530545</v>
+      </c>
+      <c r="N7">
+        <v>24.506109</v>
+      </c>
+      <c r="O7">
+        <v>0.960849660841235</v>
+      </c>
+      <c r="P7">
+        <v>0.9424019822271914</v>
+      </c>
+      <c r="Q7">
+        <v>3.4852955811435</v>
+      </c>
+      <c r="R7">
+        <v>20.911773486861</v>
+      </c>
+      <c r="S7">
+        <v>0.02651926741915525</v>
+      </c>
+      <c r="T7">
+        <v>0.03333972511095313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.224346</v>
+      </c>
+      <c r="H8">
+        <v>9.673038</v>
+      </c>
+      <c r="I8">
+        <v>0.3128617500310742</v>
+      </c>
+      <c r="J8">
+        <v>0.4010257063806036</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.2576883333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.7730650000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.02020718570100839</v>
+      </c>
+      <c r="P8">
+        <v>0.02972883163094001</v>
+      </c>
+      <c r="Q8">
+        <v>0.8308763468300001</v>
+      </c>
+      <c r="R8">
+        <v>7.477887121470001</v>
+      </c>
+      <c r="S8">
+        <v>0.006322055481620382</v>
+      </c>
+      <c r="T8">
+        <v>0.01192202570466775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2.06711247775538</v>
-      </c>
-      <c r="H4">
-        <v>2.06711247775538</v>
-      </c>
-      <c r="I4">
-        <v>0.2457037324409493</v>
-      </c>
-      <c r="J4">
-        <v>0.2457037324409493</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>10.2615767625991</v>
-      </c>
-      <c r="N4">
-        <v>10.2615767625991</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>21.21183336741326</v>
-      </c>
-      <c r="R4">
-        <v>21.21183336741326</v>
-      </c>
-      <c r="S4">
-        <v>0.2457037324409493</v>
-      </c>
-      <c r="T4">
-        <v>0.2457037324409493</v>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.224346</v>
+      </c>
+      <c r="H9">
+        <v>9.673038</v>
+      </c>
+      <c r="I9">
+        <v>0.3128617500310742</v>
+      </c>
+      <c r="J9">
+        <v>0.4010257063806036</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.241569</v>
+      </c>
+      <c r="N9">
+        <v>0.7247070000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.0189431534577567</v>
+      </c>
+      <c r="P9">
+        <v>0.02786918614186859</v>
+      </c>
+      <c r="Q9">
+        <v>0.7789020388740001</v>
+      </c>
+      <c r="R9">
+        <v>7.010118349866001</v>
+      </c>
+      <c r="S9">
+        <v>0.005926588141900956</v>
+      </c>
+      <c r="T9">
+        <v>0.01117626005879538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.224346</v>
+      </c>
+      <c r="H10">
+        <v>9.673038</v>
+      </c>
+      <c r="I10">
+        <v>0.3128617500310742</v>
+      </c>
+      <c r="J10">
+        <v>0.4010257063806036</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>12.2530545</v>
+      </c>
+      <c r="N10">
+        <v>24.506109</v>
+      </c>
+      <c r="O10">
+        <v>0.960849660841235</v>
+      </c>
+      <c r="P10">
+        <v>0.9424019822271914</v>
+      </c>
+      <c r="Q10">
+        <v>39.508087264857</v>
+      </c>
+      <c r="R10">
+        <v>237.048523589142</v>
+      </c>
+      <c r="S10">
+        <v>0.3006131064075529</v>
+      </c>
+      <c r="T10">
+        <v>0.3779274206171405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.8652865</v>
+      </c>
+      <c r="H11">
+        <v>5.730573000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.2780218217059868</v>
+      </c>
+      <c r="J11">
+        <v>0.2375786268275401</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.2576883333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.7730650000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.02020718570100839</v>
+      </c>
+      <c r="P11">
+        <v>0.02972883163094001</v>
+      </c>
+      <c r="Q11">
+        <v>0.7383509027075001</v>
+      </c>
+      <c r="R11">
+        <v>4.430105416245001</v>
+      </c>
+      <c r="S11">
+        <v>0.005618038580145519</v>
+      </c>
+      <c r="T11">
+        <v>0.007062934996065868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.8652865</v>
+      </c>
+      <c r="H12">
+        <v>5.730573000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.2780218217059868</v>
+      </c>
+      <c r="J12">
+        <v>0.2375786268275401</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.241569</v>
+      </c>
+      <c r="N12">
+        <v>0.7247070000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.0189431534577567</v>
+      </c>
+      <c r="P12">
+        <v>0.02786918614186859</v>
+      </c>
+      <c r="Q12">
+        <v>0.6921643945185002</v>
+      </c>
+      <c r="R12">
+        <v>4.152986367111001</v>
+      </c>
+      <c r="S12">
+        <v>0.00526661003318158</v>
+      </c>
+      <c r="T12">
+        <v>0.006621122974386251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.8652865</v>
+      </c>
+      <c r="H13">
+        <v>5.730573000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.2780218217059868</v>
+      </c>
+      <c r="J13">
+        <v>0.2375786268275401</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>12.2530545</v>
+      </c>
+      <c r="N13">
+        <v>24.506109</v>
+      </c>
+      <c r="O13">
+        <v>0.960849660841235</v>
+      </c>
+      <c r="P13">
+        <v>0.9424019822271914</v>
+      </c>
+      <c r="Q13">
+        <v>35.10851164261425</v>
+      </c>
+      <c r="R13">
+        <v>140.434046570457</v>
+      </c>
+      <c r="S13">
+        <v>0.2671371730926597</v>
+      </c>
+      <c r="T13">
+        <v>0.223894568857088</v>
       </c>
     </row>
   </sheetData>
